--- a/excels/C.xlsx
+++ b/excels/C.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Loo c</t>
   </si>
   <si>
-    <t xml:space="preserve">No_match_C</t>
+    <t xml:space="preserve">Dummy_C</t>
   </si>
 </sst>
 </file>
@@ -178,10 +178,10 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.71"/>

--- a/excels/C.xlsx
+++ b/excels/C.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Loo c</t>
   </si>
   <si>
-    <t xml:space="preserve">Dummy_C</t>
+    <t xml:space="preserve">Fake_C</t>
   </si>
 </sst>
 </file>
@@ -178,10 +178,10 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.71"/>
